--- a/analysis/data.xlsx
+++ b/analysis/data.xlsx
@@ -1797,7 +1797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1824,6 +1824,12 @@
       <c r="F1" t="n">
         <v>0.00400090217590332</v>
       </c>
+      <c r="G1" t="n">
+        <v>656</v>
+      </c>
+      <c r="H1" t="n">
+        <v>331.0831685066223</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1844,6 +1850,12 @@
       <c r="F2" t="n">
         <v>0.03500843048095703</v>
       </c>
+      <c r="G2" t="n">
+        <v>672</v>
+      </c>
+      <c r="H2" t="n">
+        <v>356.007839679718</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1864,6 +1876,12 @@
       <c r="F3" t="n">
         <v>0.1200270652770996</v>
       </c>
+      <c r="G3" t="n">
+        <v>688</v>
+      </c>
+      <c r="H3" t="n">
+        <v>403.4298586845398</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1884,6 +1902,12 @@
       <c r="F4" t="n">
         <v>0.2920658588409424</v>
       </c>
+      <c r="G4" t="n">
+        <v>704</v>
+      </c>
+      <c r="H4" t="n">
+        <v>411.5211741924286</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1904,6 +1928,12 @@
       <c r="F5" t="n">
         <v>0.5791399478912354</v>
       </c>
+      <c r="G5" t="n">
+        <v>720</v>
+      </c>
+      <c r="H5" t="n">
+        <v>435.780609369278</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1924,6 +1954,12 @@
       <c r="F6" t="n">
         <v>0.9752199649810791</v>
       </c>
+      <c r="G6" t="n">
+        <v>736</v>
+      </c>
+      <c r="H6" t="n">
+        <v>465.7864785194397</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1938,6 +1974,12 @@
       <c r="F7" t="n">
         <v>1.590358972549438</v>
       </c>
+      <c r="G7" t="n">
+        <v>752</v>
+      </c>
+      <c r="H7" t="n">
+        <v>499.1086611747742</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1952,6 +1994,12 @@
       <c r="F8" t="n">
         <v>2.331525802612305</v>
       </c>
+      <c r="G8" t="n">
+        <v>768</v>
+      </c>
+      <c r="H8" t="n">
+        <v>531.2414960861206</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1966,6 +2014,12 @@
       <c r="F9" t="n">
         <v>3.321749925613403</v>
       </c>
+      <c r="G9" t="n">
+        <v>784</v>
+      </c>
+      <c r="H9" t="n">
+        <v>562.1907751560211</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1980,6 +2034,12 @@
       <c r="F10" t="n">
         <v>4.568042755126953</v>
       </c>
+      <c r="G10" t="n">
+        <v>800</v>
+      </c>
+      <c r="H10" t="n">
+        <v>598.0597877502441</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1994,6 +2054,12 @@
       <c r="F11" t="n">
         <v>6.077372074127197</v>
       </c>
+      <c r="G11" t="n">
+        <v>816</v>
+      </c>
+      <c r="H11" t="n">
+        <v>633.3745987415314</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2008,6 +2074,12 @@
       <c r="F12" t="n">
         <v>7.901320695877075</v>
       </c>
+      <c r="G12" t="n">
+        <v>832</v>
+      </c>
+      <c r="H12" t="n">
+        <v>675.6038835048676</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2022,6 +2094,12 @@
       <c r="F13" t="n">
         <v>10.12128686904907</v>
       </c>
+      <c r="G13" t="n">
+        <v>848</v>
+      </c>
+      <c r="H13" t="n">
+        <v>721.5632584095001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2036,6 +2114,12 @@
       <c r="F14" t="n">
         <v>12.62785983085632</v>
       </c>
+      <c r="G14" t="n">
+        <v>864</v>
+      </c>
+      <c r="H14" t="n">
+        <v>753.3729038238525</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2050,6 +2134,12 @@
       <c r="F15" t="n">
         <v>15.37868547439575</v>
       </c>
+      <c r="G15" t="n">
+        <v>880</v>
+      </c>
+      <c r="H15" t="n">
+        <v>806.4410846233368</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2064,6 +2154,12 @@
       <c r="F16" t="n">
         <v>18.75624442100525</v>
       </c>
+      <c r="G16" t="n">
+        <v>896</v>
+      </c>
+      <c r="H16" t="n">
+        <v>852.5531070232391</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2078,6 +2174,12 @@
       <c r="F17" t="n">
         <v>22.66613984107971</v>
       </c>
+      <c r="G17" t="n">
+        <v>912</v>
+      </c>
+      <c r="H17" t="n">
+        <v>942.3759346008301</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2092,6 +2194,12 @@
       <c r="F18" t="n">
         <v>27.01709818840027</v>
       </c>
+      <c r="G18" t="n">
+        <v>928</v>
+      </c>
+      <c r="H18" t="n">
+        <v>994.699524641037</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2106,6 +2214,12 @@
       <c r="F19" t="n">
         <v>31.84619879722595</v>
       </c>
+      <c r="G19" t="n">
+        <v>944</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1052.298525810242</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2120,6 +2234,12 @@
       <c r="F20" t="n">
         <v>37.01340341567993</v>
       </c>
+      <c r="G20" t="n">
+        <v>960</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1104.180236816406</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2134,6 +2254,12 @@
       <c r="F21" t="n">
         <v>42.99826335906982</v>
       </c>
+      <c r="G21" t="n">
+        <v>976</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1154.212849140167</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2148,6 +2274,12 @@
       <c r="F22" t="n">
         <v>49.53526139259338</v>
       </c>
+      <c r="G22" t="n">
+        <v>992</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1215.493733644485</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2162,6 +2294,12 @@
       <c r="F23" t="n">
         <v>56.90663695335388</v>
       </c>
+      <c r="G23" t="n">
+        <v>1008</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1327.448633432388</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2176,6 +2314,12 @@
       <c r="F24" t="n">
         <v>65.03473711013794</v>
       </c>
+      <c r="G24" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1333.85945224762</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2190,6 +2334,12 @@
       <c r="F25" t="n">
         <v>73.45491600036621</v>
       </c>
+      <c r="G25" t="n">
+        <v>1040</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1324.227924108505</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2204,6 +2354,12 @@
       <c r="F26" t="n">
         <v>81.87760424613953</v>
       </c>
+      <c r="G26" t="n">
+        <v>1056</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1374.673053264618</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2218,6 +2374,12 @@
       <c r="F27" t="n">
         <v>93.32411980628967</v>
       </c>
+      <c r="G27" t="n">
+        <v>1072</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1459.698815822601</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2232,6 +2394,12 @@
       <c r="F28" t="n">
         <v>103.685498714447</v>
       </c>
+      <c r="G28" t="n">
+        <v>1088</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1522.010560035706</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2246,6 +2414,12 @@
       <c r="F29" t="n">
         <v>116.34033203125</v>
       </c>
+      <c r="G29" t="n">
+        <v>1104</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1671.073205947876</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2260,6 +2434,12 @@
       <c r="F30" t="n">
         <v>129.2657618522644</v>
       </c>
+      <c r="G30" t="n">
+        <v>1120</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1747.710987329483</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2274,6 +2454,12 @@
       <c r="F31" t="n">
         <v>141.9356291294098</v>
       </c>
+      <c r="G31" t="n">
+        <v>1136</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1824.740315914154</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2288,6 +2474,12 @@
       <c r="F32" t="n">
         <v>155.862101316452</v>
       </c>
+      <c r="G32" t="n">
+        <v>1152</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1908.899879217148</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2302,6 +2494,12 @@
       <c r="F33" t="n">
         <v>171.3367958068848</v>
       </c>
+      <c r="G33" t="n">
+        <v>1168</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1905.520782232285</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2316,6 +2514,12 @@
       <c r="F34" t="n">
         <v>188.2504312992096</v>
       </c>
+      <c r="G34" t="n">
+        <v>1184</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1945.17403459549</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2329,6 +2533,12 @@
       </c>
       <c r="F35" t="n">
         <v>203.0354204177856</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1200</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2020.037096977234</v>
       </c>
     </row>
     <row r="36">
@@ -3646,68 +3856,68 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>640</v>
+        <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>36.8754198551178</v>
+        <v>0.0220038890838623</v>
       </c>
       <c r="C4" t="n">
-        <v>48.58862733840942</v>
+        <v>0.02200531959533691</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>768</v>
+        <v>60</v>
       </c>
       <c r="B5" t="n">
-        <v>43.91392159461975</v>
+        <v>0.02700495719909668</v>
       </c>
       <c r="C5" t="n">
-        <v>57.62200665473938</v>
+        <v>0.02700591087341309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>896</v>
+        <v>70</v>
       </c>
       <c r="B6" t="n">
-        <v>50.6889476776123</v>
+        <v>0.03200721740722656</v>
       </c>
       <c r="C6" t="n">
-        <v>67.83191323280334</v>
+        <v>0.03200674057006836</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1024</v>
+        <v>80</v>
       </c>
       <c r="B7" t="n">
-        <v>58.27482581138611</v>
+        <v>0.03500771522521973</v>
       </c>
       <c r="C7" t="n">
-        <v>78.2992582321167</v>
+        <v>0.03500843048095703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1152</v>
+        <v>90</v>
       </c>
       <c r="B8" t="n">
-        <v>64.86825966835022</v>
+        <v>0.0400083065032959</v>
       </c>
       <c r="C8" t="n">
-        <v>87.17176914215088</v>
+        <v>0.03900861740112305</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1280</v>
+        <v>100</v>
       </c>
       <c r="B9" t="n">
-        <v>71.98883271217346</v>
+        <v>0.04701113700866699</v>
       </c>
       <c r="C9" t="n">
-        <v>97.85724830627441</v>
+        <v>0.04600930213928223</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/data.xlsx
+++ b/analysis/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mio\Documents\GitHub\dsaa-project-matrix\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guanc\Documents\GitHub\dsaa-project-matrix\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD4F15A-B307-4630-868A-04A35BDE2616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A455915-2F29-4029-8ABB-7DE9932AB6CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5124" yWindow="1800" windowWidth="23040" windowHeight="12264" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="10702" windowWidth="20715" windowHeight="13275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crossover_point" sheetId="1" r:id="rId1"/>
@@ -1756,11 +1756,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -2819,6 +2823,12 @@
       <c r="B76">
         <v>1491.078117609024</v>
       </c>
+      <c r="C76">
+        <v>1280</v>
+      </c>
+      <c r="D76">
+        <v>2615.9782190322799</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -2827,6 +2837,12 @@
       <c r="B77">
         <v>2561.4066469669342</v>
       </c>
+      <c r="C77">
+        <v>1536</v>
+      </c>
+      <c r="D77">
+        <v>4561.1652109622901</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -2835,6 +2851,12 @@
       <c r="B78">
         <v>3972.877114295959</v>
       </c>
+      <c r="C78">
+        <v>1792</v>
+      </c>
+      <c r="D78">
+        <v>7592.51501560211</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -2843,6 +2865,12 @@
       <c r="B79">
         <v>5557.7462213039398</v>
       </c>
+      <c r="C79">
+        <v>2048</v>
+      </c>
+      <c r="D79">
+        <v>11435.2414028644</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -2851,11 +2879,17 @@
       <c r="B80">
         <v>40243.538519144058</v>
       </c>
+      <c r="C80">
+        <v>4096</v>
+      </c>
+      <c r="D80">
+        <v>90038.988339424104</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
